--- a/UFR1.xlsx
+++ b/UFR1.xlsx
@@ -150,37 +150,6 @@
       <left style="thin">
         <color rgb="FFD3D3D3"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD3D3D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD3D3D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD3D3D3"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD3D3D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD3D3D3"/>
-      </left>
       <right style="thin">
         <color rgb="FFD3D3D3"/>
       </right>
@@ -204,6 +173,37 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -380,7 +380,7 @@
       </c>
       <c s="2" t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">A02RHW0</t>
+          <t xml:space="preserve">A02RNLQ</t>
         </is>
       </c>
     </row>
@@ -398,12 +398,12 @@
     <row r="10" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">5B92MT-024</t>
+          <t xml:space="preserve">5BQ2MR-288</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">822C</t>
+          <t xml:space="preserve">845C</t>
         </is>
       </c>
       <c s="5" t="str" r="D10"/>
@@ -412,7 +412,7 @@
     <row r="11" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">5BQ2MT-024</t>
+          <t xml:space="preserve">FNAP-CBL-024EUC</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C11">
@@ -426,12 +426,12 @@
     <row r="12" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">5BQ2MT-144</t>
+          <t xml:space="preserve">FNAP-CBL-048</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">845C</t>
+          <t xml:space="preserve">822C</t>
         </is>
       </c>
       <c s="5" t="str" r="D12"/>
@@ -440,12 +440,12 @@
     <row r="13" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">FNAP-CBL-024</t>
+          <t xml:space="preserve">FNAP-CBL-048EUC</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">822C</t>
+          <t xml:space="preserve">845C</t>
         </is>
       </c>
       <c s="5" t="str" r="D13"/>
@@ -454,43 +454,47 @@
     <row r="14" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">FNAP-CBL-024EUC</t>
+          <t xml:space="preserve">FNAP-CBL-072EUC</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">822C</t>
+          <t xml:space="preserve">845C</t>
         </is>
       </c>
       <c s="5" t="str" r="D14"/>
       <c s="6" t="str" r="E14"/>
     </row>
     <row r="15" ht="18" customHeight="0">
-      <c s="7" t="str" r="B15"/>
+      <c s="4" t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-144EUC</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">845C</t>
+          <t xml:space="preserve">822C</t>
         </is>
       </c>
       <c s="5" t="str" r="D15"/>
       <c s="6" t="str" r="E15"/>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B16">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-048EUC</t>
-        </is>
-      </c>
+      <c s="7" t="str" r="B16"/>
       <c s="4" t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">822C</t>
+          <t xml:space="preserve">845C</t>
         </is>
       </c>
       <c s="5" t="str" r="D16"/>
       <c s="6" t="str" r="E16"/>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="7" t="str" r="B17"/>
+      <c s="4" t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-216EUC</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="C17">
         <is>
           <t xml:space="preserve">845C</t>
@@ -499,108 +503,150 @@
       <c s="5" t="str" r="D17"/>
       <c s="6" t="str" r="E17"/>
     </row>
-    <row r="18" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B18">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-144EUC</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C18">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="D18"/>
-      <c s="6" t="str" r="E18"/>
-    </row>
+    <row r="18" ht="12.9" customHeight="1"/>
     <row r="19" ht="18" customHeight="0">
-      <c s="7" t="str" r="B19"/>
-      <c s="4" t="inlineStr" r="C19">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="D19"/>
-      <c s="6" t="str" r="E19"/>
-    </row>
-    <row r="20" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B20">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-216EUC</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C20">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="D20"/>
-      <c s="6" t="str" r="E20"/>
-    </row>
+      <c s="3" t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="5" customHeight="1"/>
     <row r="21" ht="18" customHeight="0">
-      <c s="7" t="str" r="B21"/>
+      <c s="4" t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">MATERIAL</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">845C</t>
+          <t xml:space="preserve">FRC</t>
         </is>
       </c>
       <c s="5" t="str" r="D21"/>
       <c s="6" t="str" r="E21"/>
-    </row>
-    <row r="22" ht="12.9" customHeight="1"/>
+      <c s="4" t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">SRC</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G21"/>
+      <c s="4" t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">ITEM</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">QTY</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">Total</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K21"/>
+    </row>
+    <row r="22" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">5BQ2MR-288</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D22"/>
+      <c s="9" t="str" r="E22"/>
+      <c s="4" t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G22"/>
+      <c s="4" t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">137251348</t>
+        </is>
+      </c>
+      <c s="10" r="I22">
+        <v>405</v>
+      </c>
+      <c s="4" t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">405</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K22"/>
+    </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B23">
-        <is>
-          <t xml:space="preserve">Details</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="5" customHeight="1"/>
+      <c s="11" t="str" r="B23"/>
+      <c s="12" t="str" r="C23"/>
+      <c s="13" t="str" r="E23"/>
+      <c s="14" t="str" r="F23"/>
+      <c s="15" t="str" r="G23"/>
+      <c s="7" t="str" r="H23"/>
+      <c s="10" r="I23">
+        <v>0</v>
+      </c>
+      <c s="4" t="str" r="J23"/>
+      <c s="6" t="str" r="K23"/>
+    </row>
+    <row r="24" ht="18" customHeight="0">
+      <c s="11" t="str" r="B24"/>
+      <c s="12" t="str" r="C24"/>
+      <c s="13" t="str" r="E24"/>
+      <c s="4" t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G24"/>
+      <c s="4" t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">5.2</t>
+        </is>
+      </c>
+      <c s="10" r="I24">
+        <v>374</v>
+      </c>
+      <c s="4" t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">405</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K24"/>
+    </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B25">
-        <is>
-          <t xml:space="preserve">MATERIAL</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C25">
-        <is>
-          <t xml:space="preserve">FRC</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="D25"/>
-      <c s="6" t="str" r="E25"/>
-      <c s="4" t="inlineStr" r="F25">
-        <is>
-          <t xml:space="preserve">SRC</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G25"/>
+      <c s="7" t="str" r="B25"/>
+      <c s="14" t="str" r="C25"/>
+      <c s="16" t="str" r="D25"/>
+      <c s="15" t="str" r="E25"/>
+      <c s="14" t="str" r="F25"/>
+      <c s="15" t="str" r="G25"/>
       <c s="4" t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">ITEM</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="I25">
-        <is>
-          <t xml:space="preserve">QTY</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="J25">
-        <is>
-          <t xml:space="preserve">Total</t>
-        </is>
-      </c>
+          <t xml:space="preserve">5.5</t>
+        </is>
+      </c>
+      <c s="10" r="I25">
+        <v>31</v>
+      </c>
+      <c s="4" t="str" r="J25"/>
       <c s="6" t="str" r="K25"/>
     </row>
     <row r="26" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">5B92MT-024</t>
+          <t xml:space="preserve">FNAP-CBL-024EUC</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C26">
         <is>
-          <t xml:space="preserve">822C</t>
+          <t xml:space="preserve">845C</t>
         </is>
       </c>
       <c s="8" t="str" r="D26"/>
@@ -610,965 +656,767 @@
           <t xml:space="preserve">feature</t>
         </is>
       </c>
-      <c s="6" t="str" r="G26"/>
+      <c s="9" t="str" r="G26"/>
       <c s="4" t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">137767377</t>
+          <t xml:space="preserve">137251114</t>
         </is>
       </c>
       <c s="10" r="I26">
-        <v>120</v>
+        <v>1500</v>
       </c>
       <c s="4" t="inlineStr" r="J26">
         <is>
-          <t xml:space="preserve">120</t>
+          <t xml:space="preserve">5072</t>
         </is>
       </c>
       <c s="6" t="str" r="K26"/>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="7" t="str" r="B27"/>
-      <c s="11" t="str" r="C27"/>
-      <c s="12" t="str" r="D27"/>
+      <c s="11" t="str" r="B27"/>
+      <c s="12" t="str" r="C27"/>
       <c s="13" t="str" r="E27"/>
-      <c s="4" t="inlineStr" r="F27">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G27"/>
+      <c s="12" t="str" r="F27"/>
+      <c s="13" t="str" r="G27"/>
       <c s="4" t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">3.17</t>
+          <t xml:space="preserve">137251571</t>
         </is>
       </c>
       <c s="10" r="I27">
-        <v>120</v>
-      </c>
-      <c s="4" t="inlineStr" r="J27">
-        <is>
-          <t xml:space="preserve">120</t>
-        </is>
-      </c>
+        <v>1062</v>
+      </c>
+      <c s="4" t="str" r="J27"/>
       <c s="6" t="str" r="K27"/>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B28">
-        <is>
-          <t xml:space="preserve">5BQ2MT-024</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C28">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D28"/>
-      <c s="9" t="str" r="E28"/>
-      <c s="4" t="inlineStr" r="F28">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G28"/>
+      <c s="11" t="str" r="B28"/>
+      <c s="12" t="str" r="C28"/>
+      <c s="13" t="str" r="E28"/>
+      <c s="12" t="str" r="F28"/>
+      <c s="13" t="str" r="G28"/>
       <c s="4" t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">137523773</t>
+          <t xml:space="preserve">137252655</t>
         </is>
       </c>
       <c s="10" r="I28">
-        <v>194</v>
-      </c>
-      <c s="4" t="inlineStr" r="J28">
-        <is>
-          <t xml:space="preserve">194</t>
-        </is>
-      </c>
+        <v>1049</v>
+      </c>
+      <c s="4" t="str" r="J28"/>
       <c s="6" t="str" r="K28"/>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="7" t="str" r="B29"/>
-      <c s="11" t="str" r="C29"/>
-      <c s="12" t="str" r="D29"/>
+      <c s="11" t="str" r="B29"/>
+      <c s="12" t="str" r="C29"/>
       <c s="13" t="str" r="E29"/>
-      <c s="4" t="inlineStr" r="F29">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G29"/>
+      <c s="12" t="str" r="F29"/>
+      <c s="13" t="str" r="G29"/>
       <c s="4" t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">16.11</t>
+          <t xml:space="preserve">137251001</t>
         </is>
       </c>
       <c s="10" r="I29">
-        <v>194</v>
-      </c>
-      <c s="4" t="inlineStr" r="J29">
-        <is>
-          <t xml:space="preserve">194</t>
-        </is>
-      </c>
+        <v>1014</v>
+      </c>
+      <c s="4" t="str" r="J29"/>
       <c s="6" t="str" r="K29"/>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B30">
-        <is>
-          <t xml:space="preserve">5BQ2MT-144</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C30">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D30"/>
-      <c s="9" t="str" r="E30"/>
-      <c s="4" t="inlineStr" r="F30">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G30"/>
+      <c s="11" t="str" r="B30"/>
+      <c s="12" t="str" r="C30"/>
+      <c s="13" t="str" r="E30"/>
+      <c s="14" t="str" r="F30"/>
+      <c s="15" t="str" r="G30"/>
       <c s="4" t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">136968475</t>
+          <t xml:space="preserve">137251279</t>
         </is>
       </c>
       <c s="10" r="I30">
-        <v>1250</v>
-      </c>
-      <c s="4" t="inlineStr" r="J30">
-        <is>
-          <t xml:space="preserve">1250</t>
-        </is>
-      </c>
+        <v>447</v>
+      </c>
+      <c s="4" t="str" r="J30"/>
       <c s="6" t="str" r="K30"/>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="7" t="str" r="B31"/>
-      <c s="11" t="str" r="C31"/>
-      <c s="12" t="str" r="D31"/>
+      <c s="11" t="str" r="B31"/>
+      <c s="12" t="str" r="C31"/>
       <c s="13" t="str" r="E31"/>
       <c s="4" t="inlineStr" r="F31">
         <is>
           <t xml:space="preserve">task</t>
         </is>
       </c>
-      <c s="6" t="str" r="G31"/>
+      <c s="9" t="str" r="G31"/>
       <c s="4" t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">3.2</t>
+          <t xml:space="preserve">10.2</t>
         </is>
       </c>
       <c s="10" r="I31">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c s="4" t="inlineStr" r="J31">
         <is>
-          <t xml:space="preserve">1250</t>
+          <t xml:space="preserve">5072</t>
         </is>
       </c>
       <c s="6" t="str" r="K31"/>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B32">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-024</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C32">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D32"/>
-      <c s="9" t="str" r="E32"/>
-      <c s="4" t="inlineStr" r="F32">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G32"/>
+      <c s="11" t="str" r="B32"/>
+      <c s="12" t="str" r="C32"/>
+      <c s="13" t="str" r="E32"/>
+      <c s="12" t="str" r="F32"/>
+      <c s="13" t="str" r="G32"/>
       <c s="4" t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">136968708</t>
+          <t xml:space="preserve">16.1</t>
         </is>
       </c>
       <c s="10" r="I32">
-        <v>444</v>
-      </c>
-      <c s="4" t="inlineStr" r="J32">
-        <is>
-          <t xml:space="preserve">1393</t>
-        </is>
-      </c>
+        <v>1062</v>
+      </c>
+      <c s="4" t="str" r="J32"/>
       <c s="6" t="str" r="K32"/>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="14" t="str" r="B33"/>
-      <c s="15" t="str" r="C33"/>
-      <c s="16" t="str" r="E33"/>
-      <c s="15" t="str" r="F33"/>
-      <c s="16" t="str" r="G33"/>
+      <c s="11" t="str" r="B33"/>
+      <c s="12" t="str" r="C33"/>
+      <c s="13" t="str" r="E33"/>
+      <c s="12" t="str" r="F33"/>
+      <c s="13" t="str" r="G33"/>
       <c s="4" t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">136973206</t>
+          <t xml:space="preserve">29.1</t>
         </is>
       </c>
       <c s="10" r="I33">
-        <v>366</v>
+        <v>1049</v>
       </c>
       <c s="4" t="str" r="J33"/>
       <c s="6" t="str" r="K33"/>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="14" t="str" r="B34"/>
-      <c s="15" t="str" r="C34"/>
-      <c s="16" t="str" r="E34"/>
-      <c s="15" t="str" r="F34"/>
-      <c s="16" t="str" r="G34"/>
+      <c s="11" t="str" r="B34"/>
+      <c s="12" t="str" r="C34"/>
+      <c s="13" t="str" r="E34"/>
+      <c s="12" t="str" r="F34"/>
+      <c s="13" t="str" r="G34"/>
       <c s="4" t="inlineStr" r="H34">
         <is>
-          <t xml:space="preserve">136968670</t>
+          <t xml:space="preserve">8.16</t>
         </is>
       </c>
       <c s="10" r="I34">
-        <v>265</v>
+        <v>1014</v>
       </c>
       <c s="4" t="str" r="J34"/>
       <c s="6" t="str" r="K34"/>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="14" t="str" r="B35"/>
-      <c s="15" t="str" r="C35"/>
-      <c s="16" t="str" r="E35"/>
-      <c s="15" t="str" r="F35"/>
-      <c s="16" t="str" r="G35"/>
+      <c s="7" t="str" r="B35"/>
+      <c s="14" t="str" r="C35"/>
+      <c s="16" t="str" r="D35"/>
+      <c s="15" t="str" r="E35"/>
+      <c s="14" t="str" r="F35"/>
+      <c s="15" t="str" r="G35"/>
       <c s="4" t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">136968739</t>
+          <t xml:space="preserve">12.1</t>
         </is>
       </c>
       <c s="10" r="I35">
-        <v>221</v>
+        <v>447</v>
       </c>
       <c s="4" t="str" r="J35"/>
       <c s="6" t="str" r="K35"/>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="14" t="str" r="B36"/>
-      <c s="15" t="str" r="C36"/>
-      <c s="16" t="str" r="E36"/>
-      <c s="11" t="str" r="F36"/>
-      <c s="13" t="str" r="G36"/>
+      <c s="4" t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-048</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">822C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D36"/>
+      <c s="9" t="str" r="E36"/>
+      <c s="4" t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G36"/>
       <c s="4" t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">136968723</t>
+          <t xml:space="preserve">137251761</t>
         </is>
       </c>
       <c s="10" r="I36">
-        <v>97</v>
-      </c>
-      <c s="4" t="str" r="J36"/>
+        <v>1656</v>
+      </c>
+      <c s="4" t="inlineStr" r="J36">
+        <is>
+          <t xml:space="preserve">1656</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K36"/>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="14" t="str" r="B37"/>
-      <c s="15" t="str" r="C37"/>
-      <c s="16" t="str" r="E37"/>
+      <c s="7" t="str" r="B37"/>
+      <c s="14" t="str" r="C37"/>
+      <c s="16" t="str" r="D37"/>
+      <c s="15" t="str" r="E37"/>
       <c s="4" t="inlineStr" r="F37">
         <is>
           <t xml:space="preserve">task</t>
         </is>
       </c>
-      <c s="9" t="str" r="G37"/>
+      <c s="6" t="str" r="G37"/>
       <c s="4" t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">6.6</t>
+          <t xml:space="preserve">19.1</t>
         </is>
       </c>
       <c s="10" r="I37">
-        <v>541</v>
+        <v>1656</v>
       </c>
       <c s="4" t="inlineStr" r="J37">
         <is>
-          <t xml:space="preserve">1393</t>
+          <t xml:space="preserve">1656</t>
         </is>
       </c>
       <c s="6" t="str" r="K37"/>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="14" t="str" r="B38"/>
-      <c s="15" t="str" r="C38"/>
-      <c s="16" t="str" r="E38"/>
-      <c s="15" t="str" r="F38"/>
-      <c s="16" t="str" r="G38"/>
+      <c s="4" t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-048EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D38"/>
+      <c s="9" t="str" r="E38"/>
+      <c s="4" t="inlineStr" r="F38">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G38"/>
       <c s="4" t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">12.5</t>
+          <t xml:space="preserve">137252026</t>
         </is>
       </c>
       <c s="10" r="I38">
-        <v>366</v>
-      </c>
-      <c s="4" t="str" r="J38"/>
+        <v>1851</v>
+      </c>
+      <c s="4" t="inlineStr" r="J38">
+        <is>
+          <t xml:space="preserve">3556</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K38"/>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="14" t="str" r="B39"/>
-      <c s="15" t="str" r="C39"/>
-      <c s="16" t="str" r="E39"/>
-      <c s="15" t="str" r="F39"/>
-      <c s="16" t="str" r="G39"/>
+      <c s="11" t="str" r="B39"/>
+      <c s="12" t="str" r="C39"/>
+      <c s="13" t="str" r="E39"/>
+      <c s="14" t="str" r="F39"/>
+      <c s="15" t="str" r="G39"/>
       <c s="4" t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">6.5</t>
+          <t xml:space="preserve">137959716</t>
         </is>
       </c>
       <c s="10" r="I39">
-        <v>265</v>
+        <v>1705</v>
       </c>
       <c s="4" t="str" r="J39"/>
       <c s="6" t="str" r="K39"/>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="7" t="str" r="B40"/>
-      <c s="11" t="str" r="C40"/>
-      <c s="12" t="str" r="D40"/>
+      <c s="11" t="str" r="B40"/>
+      <c s="12" t="str" r="C40"/>
       <c s="13" t="str" r="E40"/>
-      <c s="11" t="str" r="F40"/>
-      <c s="13" t="str" r="G40"/>
+      <c s="4" t="inlineStr" r="F40">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G40"/>
       <c s="4" t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">7.5</t>
+          <t xml:space="preserve">24.1</t>
         </is>
       </c>
       <c s="10" r="I40">
-        <v>221</v>
-      </c>
-      <c s="4" t="str" r="J40"/>
+        <v>1851</v>
+      </c>
+      <c s="4" t="inlineStr" r="J40">
+        <is>
+          <t xml:space="preserve">3556</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K40"/>
     </row>
     <row r="41" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B41">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-024EUC</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C41">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D41"/>
-      <c s="9" t="str" r="E41"/>
-      <c s="4" t="inlineStr" r="F41">
+      <c s="7" t="str" r="B41"/>
+      <c s="14" t="str" r="C41"/>
+      <c s="16" t="str" r="D41"/>
+      <c s="15" t="str" r="E41"/>
+      <c s="14" t="str" r="F41"/>
+      <c s="15" t="str" r="G41"/>
+      <c s="4" t="inlineStr" r="H41">
+        <is>
+          <t xml:space="preserve">13.27</t>
+        </is>
+      </c>
+      <c s="10" r="I41">
+        <v>1705</v>
+      </c>
+      <c s="4" t="str" r="J41"/>
+      <c s="6" t="str" r="K41"/>
+    </row>
+    <row r="42" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-072EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C42">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D42"/>
+      <c s="9" t="str" r="E42"/>
+      <c s="4" t="inlineStr" r="F42">
         <is>
           <t xml:space="preserve">feature</t>
         </is>
       </c>
-      <c s="6" t="str" r="G41"/>
-      <c s="4" t="inlineStr" r="H41">
-        <is>
-          <t xml:space="preserve">136973341</t>
-        </is>
-      </c>
-      <c s="10" r="I41">
-        <v>548</v>
-      </c>
-      <c s="4" t="inlineStr" r="J41">
-        <is>
-          <t xml:space="preserve">548</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K41"/>
-    </row>
-    <row r="42" ht="18" customHeight="0">
-      <c s="14" t="str" r="B42"/>
-      <c s="11" t="str" r="C42"/>
-      <c s="12" t="str" r="D42"/>
-      <c s="13" t="str" r="E42"/>
-      <c s="4" t="inlineStr" r="F42">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G42"/>
+      <c s="9" t="str" r="G42"/>
       <c s="4" t="inlineStr" r="H42">
         <is>
-          <t xml:space="preserve">3.3</t>
+          <t xml:space="preserve">137252562</t>
         </is>
       </c>
       <c s="10" r="I42">
-        <v>1030</v>
+        <v>756</v>
       </c>
       <c s="4" t="inlineStr" r="J42">
         <is>
-          <t xml:space="preserve">1030</t>
+          <t xml:space="preserve">2286</t>
         </is>
       </c>
       <c s="6" t="str" r="K42"/>
     </row>
     <row r="43" ht="18" customHeight="0">
-      <c s="14" t="str" r="B43"/>
-      <c s="4" t="inlineStr" r="C43">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D43"/>
-      <c s="9" t="str" r="E43"/>
-      <c s="4" t="inlineStr" r="F43">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G43"/>
+      <c s="11" t="str" r="B43"/>
+      <c s="12" t="str" r="C43"/>
+      <c s="13" t="str" r="E43"/>
+      <c s="12" t="str" r="F43"/>
+      <c s="13" t="str" r="G43"/>
       <c s="4" t="inlineStr" r="H43">
         <is>
-          <t xml:space="preserve">137010754</t>
+          <t xml:space="preserve">137960325</t>
         </is>
       </c>
       <c s="10" r="I43">
-        <v>795</v>
-      </c>
-      <c s="4" t="inlineStr" r="J43">
-        <is>
-          <t xml:space="preserve">2624</t>
-        </is>
-      </c>
+        <v>574</v>
+      </c>
+      <c s="4" t="str" r="J43"/>
       <c s="6" t="str" r="K43"/>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="14" t="str" r="B44"/>
-      <c s="15" t="str" r="C44"/>
-      <c s="16" t="str" r="E44"/>
-      <c s="15" t="str" r="F44"/>
-      <c s="16" t="str" r="G44"/>
+      <c s="11" t="str" r="B44"/>
+      <c s="12" t="str" r="C44"/>
+      <c s="13" t="str" r="E44"/>
+      <c s="12" t="str" r="F44"/>
+      <c s="13" t="str" r="G44"/>
       <c s="4" t="inlineStr" r="H44">
         <is>
-          <t xml:space="preserve">136968756</t>
+          <t xml:space="preserve">137251199</t>
         </is>
       </c>
       <c s="10" r="I44">
-        <v>697</v>
+        <v>509</v>
       </c>
       <c s="4" t="str" r="J44"/>
       <c s="6" t="str" r="K44"/>
     </row>
     <row r="45" ht="18" customHeight="0">
-      <c s="14" t="str" r="B45"/>
-      <c s="15" t="str" r="C45"/>
-      <c s="16" t="str" r="E45"/>
-      <c s="15" t="str" r="F45"/>
-      <c s="16" t="str" r="G45"/>
+      <c s="11" t="str" r="B45"/>
+      <c s="12" t="str" r="C45"/>
+      <c s="13" t="str" r="E45"/>
+      <c s="14" t="str" r="F45"/>
+      <c s="15" t="str" r="G45"/>
       <c s="4" t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">136973341</t>
+          <t xml:space="preserve">137251155</t>
         </is>
       </c>
       <c s="10" r="I45">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c s="4" t="str" r="J45"/>
       <c s="6" t="str" r="K45"/>
     </row>
     <row r="46" ht="18" customHeight="0">
-      <c s="14" t="str" r="B46"/>
-      <c s="15" t="str" r="C46"/>
-      <c s="16" t="str" r="E46"/>
-      <c s="15" t="str" r="F46"/>
-      <c s="16" t="str" r="G46"/>
+      <c s="11" t="str" r="B46"/>
+      <c s="12" t="str" r="C46"/>
+      <c s="13" t="str" r="E46"/>
+      <c s="4" t="inlineStr" r="F46">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G46"/>
       <c s="4" t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">137775535</t>
+          <t xml:space="preserve">28.18</t>
         </is>
       </c>
       <c s="10" r="I46">
-        <v>405</v>
-      </c>
-      <c s="4" t="str" r="J46"/>
+        <v>1330</v>
+      </c>
+      <c s="4" t="inlineStr" r="J46">
+        <is>
+          <t xml:space="preserve">2286</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K46"/>
     </row>
     <row r="47" ht="18" customHeight="0">
-      <c s="14" t="str" r="B47"/>
-      <c s="15" t="str" r="C47"/>
-      <c s="16" t="str" r="E47"/>
-      <c s="11" t="str" r="F47"/>
-      <c s="13" t="str" r="G47"/>
+      <c s="7" t="str" r="B47"/>
+      <c s="14" t="str" r="C47"/>
+      <c s="16" t="str" r="D47"/>
+      <c s="15" t="str" r="E47"/>
+      <c s="14" t="str" r="F47"/>
+      <c s="15" t="str" r="G47"/>
       <c s="4" t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">137773878</t>
+          <t xml:space="preserve">10.1</t>
         </is>
       </c>
       <c s="10" r="I47">
-        <v>245</v>
+        <v>956</v>
       </c>
       <c s="4" t="str" r="J47"/>
       <c s="6" t="str" r="K47"/>
     </row>
     <row r="48" ht="18" customHeight="0">
-      <c s="14" t="str" r="B48"/>
-      <c s="15" t="str" r="C48"/>
-      <c s="16" t="str" r="E48"/>
+      <c s="4" t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-144EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C48">
+        <is>
+          <t xml:space="preserve">822C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D48"/>
+      <c s="9" t="str" r="E48"/>
       <c s="4" t="inlineStr" r="F48">
         <is>
-          <t xml:space="preserve">task</t>
+          <t xml:space="preserve">feature</t>
         </is>
       </c>
       <c s="9" t="str" r="G48"/>
       <c s="4" t="inlineStr" r="H48">
         <is>
-          <t xml:space="preserve">15.6</t>
+          <t xml:space="preserve">137251733</t>
         </is>
       </c>
       <c s="10" r="I48">
-        <v>795</v>
+        <v>866</v>
       </c>
       <c s="4" t="inlineStr" r="J48">
         <is>
-          <t xml:space="preserve">2142</t>
+          <t xml:space="preserve">921</t>
         </is>
       </c>
       <c s="6" t="str" r="K48"/>
     </row>
     <row r="49" ht="18" customHeight="0">
-      <c s="14" t="str" r="B49"/>
-      <c s="15" t="str" r="C49"/>
-      <c s="16" t="str" r="E49"/>
-      <c s="15" t="str" r="F49"/>
-      <c s="16" t="str" r="G49"/>
+      <c s="11" t="str" r="B49"/>
+      <c s="14" t="str" r="C49"/>
+      <c s="16" t="str" r="D49"/>
+      <c s="15" t="str" r="E49"/>
+      <c s="14" t="str" r="F49"/>
+      <c s="15" t="str" r="G49"/>
       <c s="4" t="inlineStr" r="H49">
         <is>
-          <t xml:space="preserve">11.9</t>
+          <t xml:space="preserve">137251633</t>
         </is>
       </c>
       <c s="10" r="I49">
-        <v>697</v>
+        <v>55</v>
       </c>
       <c s="4" t="str" r="J49"/>
       <c s="6" t="str" r="K49"/>
     </row>
     <row r="50" ht="18" customHeight="0">
-      <c s="14" t="str" r="B50"/>
-      <c s="15" t="str" r="C50"/>
-      <c s="16" t="str" r="E50"/>
-      <c s="15" t="str" r="F50"/>
-      <c s="16" t="str" r="G50"/>
+      <c s="11" t="str" r="B50"/>
+      <c s="4" t="inlineStr" r="C50">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D50"/>
+      <c s="9" t="str" r="E50"/>
+      <c s="4" t="inlineStr" r="F50">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G50"/>
       <c s="4" t="inlineStr" r="H50">
         <is>
-          <t xml:space="preserve">17.18</t>
+          <t xml:space="preserve">137252051</t>
         </is>
       </c>
       <c s="10" r="I50">
-        <v>405</v>
-      </c>
-      <c s="4" t="str" r="J50"/>
+        <v>1729</v>
+      </c>
+      <c s="4" t="inlineStr" r="J50">
+        <is>
+          <t xml:space="preserve">4970</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K50"/>
     </row>
     <row r="51" ht="18" customHeight="0">
-      <c s="7" t="str" r="B51"/>
-      <c s="11" t="str" r="C51"/>
-      <c s="12" t="str" r="D51"/>
+      <c s="11" t="str" r="B51"/>
+      <c s="12" t="str" r="C51"/>
       <c s="13" t="str" r="E51"/>
-      <c s="11" t="str" r="F51"/>
+      <c s="12" t="str" r="F51"/>
       <c s="13" t="str" r="G51"/>
       <c s="4" t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">14.19</t>
+          <t xml:space="preserve">137251530</t>
         </is>
       </c>
       <c s="10" r="I51">
-        <v>245</v>
+        <v>1492</v>
       </c>
       <c s="4" t="str" r="J51"/>
       <c s="6" t="str" r="K51"/>
     </row>
     <row r="52" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B52">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-048EUC</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C52">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="D52"/>
-      <c s="6" t="str" r="E52"/>
-      <c s="4" t="inlineStr" r="F52">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G52"/>
+      <c s="11" t="str" r="B52"/>
+      <c s="12" t="str" r="C52"/>
+      <c s="13" t="str" r="E52"/>
+      <c s="12" t="str" r="F52"/>
+      <c s="13" t="str" r="G52"/>
       <c s="4" t="inlineStr" r="H52">
         <is>
-          <t xml:space="preserve">136973238</t>
+          <t xml:space="preserve">137251633</t>
         </is>
       </c>
       <c s="10" r="I52">
-        <v>365</v>
-      </c>
-      <c s="4" t="inlineStr" r="J52">
-        <is>
-          <t xml:space="preserve">365</t>
-        </is>
-      </c>
+        <v>1322</v>
+      </c>
+      <c s="4" t="str" r="J52"/>
       <c s="6" t="str" r="K52"/>
     </row>
     <row r="53" ht="18" customHeight="0">
-      <c s="14" t="str" r="B53"/>
-      <c s="4" t="inlineStr" r="C53">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D53"/>
-      <c s="9" t="str" r="E53"/>
-      <c s="4" t="inlineStr" r="F53">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G53"/>
+      <c s="11" t="str" r="B53"/>
+      <c s="12" t="str" r="C53"/>
+      <c s="13" t="str" r="E53"/>
+      <c s="14" t="str" r="F53"/>
+      <c s="15" t="str" r="G53"/>
       <c s="4" t="inlineStr" r="H53">
         <is>
-          <t xml:space="preserve">137114080</t>
+          <t xml:space="preserve">137251474</t>
         </is>
       </c>
       <c s="10" r="I53">
-        <v>450</v>
-      </c>
-      <c s="4" t="inlineStr" r="J53">
-        <is>
-          <t xml:space="preserve">1130</t>
-        </is>
-      </c>
+        <v>427</v>
+      </c>
+      <c s="4" t="str" r="J53"/>
       <c s="6" t="str" r="K53"/>
     </row>
     <row r="54" ht="18" customHeight="0">
-      <c s="14" t="str" r="B54"/>
-      <c s="15" t="str" r="C54"/>
-      <c s="16" t="str" r="E54"/>
-      <c s="15" t="str" r="F54"/>
-      <c s="16" t="str" r="G54"/>
+      <c s="11" t="str" r="B54"/>
+      <c s="12" t="str" r="C54"/>
+      <c s="13" t="str" r="E54"/>
+      <c s="4" t="inlineStr" r="F54">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G54"/>
       <c s="4" t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">137773832</t>
+          <t xml:space="preserve">16.2</t>
         </is>
       </c>
       <c s="10" r="I54">
-        <v>370</v>
-      </c>
-      <c s="4" t="str" r="J54"/>
+        <v>2243</v>
+      </c>
+      <c s="4" t="inlineStr" r="J54">
+        <is>
+          <t xml:space="preserve">5891</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K54"/>
     </row>
     <row r="55" ht="18" customHeight="0">
-      <c s="14" t="str" r="B55"/>
-      <c s="15" t="str" r="C55"/>
-      <c s="16" t="str" r="E55"/>
-      <c s="15" t="str" r="F55"/>
-      <c s="16" t="str" r="G55"/>
+      <c s="11" t="str" r="B55"/>
+      <c s="12" t="str" r="C55"/>
+      <c s="13" t="str" r="E55"/>
+      <c s="12" t="str" r="F55"/>
+      <c s="13" t="str" r="G55"/>
       <c s="4" t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">137010729</t>
+          <t xml:space="preserve">24.2</t>
         </is>
       </c>
       <c s="10" r="I55">
-        <v>210</v>
+        <v>1729</v>
       </c>
       <c s="4" t="str" r="J55"/>
       <c s="6" t="str" r="K55"/>
     </row>
     <row r="56" ht="18" customHeight="0">
-      <c s="14" t="str" r="B56"/>
-      <c s="15" t="str" r="C56"/>
-      <c s="16" t="str" r="E56"/>
-      <c s="15" t="str" r="F56"/>
-      <c s="16" t="str" r="G56"/>
-      <c s="7" t="str" r="H56"/>
+      <c s="11" t="str" r="B56"/>
+      <c s="12" t="str" r="C56"/>
+      <c s="13" t="str" r="E56"/>
+      <c s="12" t="str" r="F56"/>
+      <c s="13" t="str" r="G56"/>
+      <c s="4" t="inlineStr" r="H56">
+        <is>
+          <t xml:space="preserve">6.4</t>
+        </is>
+      </c>
       <c s="10" r="I56">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c s="4" t="str" r="J56"/>
       <c s="6" t="str" r="K56"/>
     </row>
     <row r="57" ht="18" customHeight="0">
-      <c s="14" t="str" r="B57"/>
-      <c s="15" t="str" r="C57"/>
-      <c s="16" t="str" r="E57"/>
-      <c s="11" t="str" r="F57"/>
-      <c s="13" t="str" r="G57"/>
+      <c s="7" t="str" r="B57"/>
+      <c s="14" t="str" r="C57"/>
+      <c s="16" t="str" r="D57"/>
+      <c s="15" t="str" r="E57"/>
+      <c s="14" t="str" r="F57"/>
+      <c s="15" t="str" r="G57"/>
       <c s="4" t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">136973238</t>
+          <t xml:space="preserve">6.3</t>
         </is>
       </c>
       <c s="10" r="I57">
-        <v>100</v>
+        <v>427</v>
       </c>
       <c s="4" t="str" r="J57"/>
       <c s="6" t="str" r="K57"/>
     </row>
     <row r="58" ht="18" customHeight="0">
-      <c s="14" t="str" r="B58"/>
-      <c s="15" t="str" r="C58"/>
-      <c s="16" t="str" r="E58"/>
+      <c s="4" t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-216EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C58">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D58"/>
+      <c s="9" t="str" r="E58"/>
       <c s="4" t="inlineStr" r="F58">
         <is>
-          <t xml:space="preserve">task</t>
+          <t xml:space="preserve">feature</t>
         </is>
       </c>
       <c s="9" t="str" r="G58"/>
       <c s="4" t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">12.6</t>
+          <t xml:space="preserve">137250794</t>
         </is>
       </c>
       <c s="10" r="I58">
-        <v>835</v>
+        <v>1602</v>
       </c>
       <c s="4" t="inlineStr" r="J58">
         <is>
-          <t xml:space="preserve">1495</t>
+          <t xml:space="preserve">2176</t>
         </is>
       </c>
       <c s="6" t="str" r="K58"/>
     </row>
     <row r="59" ht="18" customHeight="0">
-      <c s="7" t="str" r="B59"/>
-      <c s="11" t="str" r="C59"/>
-      <c s="12" t="str" r="D59"/>
+      <c s="11" t="str" r="B59"/>
+      <c s="12" t="str" r="C59"/>
       <c s="13" t="str" r="E59"/>
-      <c s="11" t="str" r="F59"/>
+      <c s="12" t="str" r="F59"/>
       <c s="13" t="str" r="G59"/>
-      <c s="4" t="inlineStr" r="H59">
-        <is>
-          <t xml:space="preserve">3.4</t>
-        </is>
-      </c>
+      <c s="7" t="str" r="H59"/>
       <c s="10" r="I59">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c s="4" t="str" r="J59"/>
       <c s="6" t="str" r="K59"/>
     </row>
     <row r="60" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B60">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-144EUC</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C60">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D60"/>
-      <c s="9" t="str" r="E60"/>
-      <c s="4" t="inlineStr" r="F60">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G60"/>
+      <c s="11" t="str" r="B60"/>
+      <c s="12" t="str" r="C60"/>
+      <c s="13" t="str" r="E60"/>
+      <c s="14" t="str" r="F60"/>
+      <c s="15" t="str" r="G60"/>
       <c s="4" t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">136968626</t>
+          <t xml:space="preserve">137250970</t>
         </is>
       </c>
       <c s="10" r="I60">
-        <v>784</v>
-      </c>
-      <c s="4" t="inlineStr" r="J60">
-        <is>
-          <t xml:space="preserve">1231</t>
-        </is>
-      </c>
+        <v>574</v>
+      </c>
+      <c s="4" t="str" r="J60"/>
       <c s="6" t="str" r="K60"/>
     </row>
     <row r="61" ht="18" customHeight="0">
-      <c s="14" t="str" r="B61"/>
-      <c s="15" t="str" r="C61"/>
-      <c s="16" t="str" r="E61"/>
-      <c s="11" t="str" r="F61"/>
-      <c s="13" t="str" r="G61"/>
+      <c s="7" t="str" r="B61"/>
+      <c s="14" t="str" r="C61"/>
+      <c s="16" t="str" r="D61"/>
+      <c s="15" t="str" r="E61"/>
+      <c s="4" t="inlineStr" r="F61">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G61"/>
       <c s="4" t="inlineStr" r="H61">
         <is>
-          <t xml:space="preserve">136968653</t>
+          <t xml:space="preserve">5.1</t>
         </is>
       </c>
       <c s="10" r="I61">
-        <v>447</v>
-      </c>
-      <c s="4" t="str" r="J61"/>
+        <v>2176</v>
+      </c>
+      <c s="4" t="inlineStr" r="J61">
+        <is>
+          <t xml:space="preserve">2176</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K61"/>
     </row>
-    <row r="62" ht="18" customHeight="0">
-      <c s="14" t="str" r="B62"/>
-      <c s="11" t="str" r="C62"/>
-      <c s="12" t="str" r="D62"/>
-      <c s="13" t="str" r="E62"/>
-      <c s="4" t="inlineStr" r="F62">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G62"/>
-      <c s="4" t="inlineStr" r="H62">
-        <is>
-          <t xml:space="preserve">5.1</t>
-        </is>
-      </c>
-      <c s="10" r="I62">
-        <v>1687</v>
-      </c>
-      <c s="4" t="inlineStr" r="J62">
-        <is>
-          <t xml:space="preserve">1687</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K62"/>
-    </row>
-    <row r="63" ht="18" customHeight="0">
-      <c s="7" t="str" r="B63"/>
-      <c s="4" t="inlineStr" r="C63">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="D63"/>
-      <c s="6" t="str" r="E63"/>
-      <c s="4" t="inlineStr" r="F63">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G63"/>
-      <c s="4" t="inlineStr" r="H63">
-        <is>
-          <t xml:space="preserve">136968576</t>
-        </is>
-      </c>
-      <c s="10" r="I63">
-        <v>456</v>
-      </c>
-      <c s="4" t="inlineStr" r="J63">
-        <is>
-          <t xml:space="preserve">456</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K63"/>
-    </row>
-    <row r="64" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B64">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-216EUC</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C64">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D64"/>
-      <c s="9" t="str" r="E64"/>
-      <c s="4" t="inlineStr" r="F64">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G64"/>
-      <c s="4" t="inlineStr" r="H64">
-        <is>
-          <t xml:space="preserve">136968335</t>
-        </is>
-      </c>
-      <c s="10" r="I64">
-        <v>237</v>
-      </c>
-      <c s="4" t="inlineStr" r="J64">
-        <is>
-          <t xml:space="preserve">237</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K64"/>
-    </row>
-    <row r="65" ht="18" customHeight="0">
-      <c s="14" t="str" r="B65"/>
-      <c s="11" t="str" r="C65"/>
-      <c s="12" t="str" r="D65"/>
-      <c s="13" t="str" r="E65"/>
-      <c s="4" t="inlineStr" r="F65">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G65"/>
-      <c s="4" t="inlineStr" r="H65">
-        <is>
-          <t xml:space="preserve">3.13</t>
-        </is>
-      </c>
-      <c s="10" r="I65">
-        <v>317</v>
-      </c>
-      <c s="4" t="inlineStr" r="J65">
-        <is>
-          <t xml:space="preserve">317</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K65"/>
-    </row>
-    <row r="66" ht="18" customHeight="0">
-      <c s="14" t="str" r="B66"/>
-      <c s="4" t="inlineStr" r="C66">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D66"/>
-      <c s="9" t="str" r="E66"/>
-      <c s="4" t="inlineStr" r="F66">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G66"/>
-      <c s="4" t="inlineStr" r="H66">
-        <is>
-          <t xml:space="preserve">136968335</t>
-        </is>
-      </c>
-      <c s="10" r="I66">
-        <v>80</v>
-      </c>
-      <c s="4" t="inlineStr" r="J66">
-        <is>
-          <t xml:space="preserve">80</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K66"/>
-    </row>
-    <row r="67" ht="18" customHeight="0">
-      <c s="7" t="str" r="B67"/>
-      <c s="11" t="str" r="C67"/>
-      <c s="12" t="str" r="D67"/>
-      <c s="13" t="str" r="E67"/>
-      <c s="11" t="str" r="F67"/>
-      <c s="13" t="str" r="G67"/>
-      <c s="7" t="str" r="H67"/>
-      <c s="10" r="I67">
-        <v>0</v>
-      </c>
-      <c s="4" t="str" r="J67"/>
-      <c s="6" t="str" r="K67"/>
-    </row>
-    <row r="68" ht="27.1" customHeight="1"/>
+    <row r="62" ht="27.1" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:J2"/>
@@ -1578,120 +1426,96 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C26:E35"/>
+    <mergeCell ref="F26:G30"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="F27:G27"/>
     <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="F28:G28"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:G30"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F31:G35"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:E40"/>
-    <mergeCell ref="F32:G36"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:E37"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="F37:G40"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:E41"/>
+    <mergeCell ref="F38:G39"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J39:K39"/>
+    <mergeCell ref="F40:G41"/>
     <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B41:B51"/>
-    <mergeCell ref="C41:E42"/>
-    <mergeCell ref="F41:G41"/>
     <mergeCell ref="J41:K41"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="C42:E47"/>
+    <mergeCell ref="F42:G45"/>
     <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C43:E51"/>
-    <mergeCell ref="F43:G47"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F46:G47"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="J47:K47"/>
-    <mergeCell ref="F48:G51"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="F48:G49"/>
     <mergeCell ref="J48:K48"/>
     <mergeCell ref="J49:K49"/>
+    <mergeCell ref="C50:E57"/>
+    <mergeCell ref="F50:G53"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J51:K51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
     <mergeCell ref="J52:K52"/>
-    <mergeCell ref="C53:E59"/>
-    <mergeCell ref="F53:G57"/>
     <mergeCell ref="J53:K53"/>
+    <mergeCell ref="F54:G57"/>
     <mergeCell ref="J54:K54"/>
-    <mergeCell ref="H55:H56"/>
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
-    <mergeCell ref="F58:G59"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:E61"/>
+    <mergeCell ref="F58:G60"/>
+    <mergeCell ref="H58:H59"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:E62"/>
-    <mergeCell ref="F60:G61"/>
     <mergeCell ref="J60:K60"/>
+    <mergeCell ref="F61:G61"/>
     <mergeCell ref="J61:K61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:E65"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="C66:E67"/>
-    <mergeCell ref="F66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C21" location="'UFR'!C66"/>
-    <hyperlink ref="C20" location="'UFR'!C64"/>
-    <hyperlink ref="C19" location="'UFR'!C63"/>
-    <hyperlink ref="C18" location="'UFR'!C60"/>
-    <hyperlink ref="C17" location="'UFR'!C53"/>
-    <hyperlink ref="C16" location="'UFR'!C52"/>
-    <hyperlink ref="C15" location="'UFR'!C43"/>
-    <hyperlink ref="C14" location="'UFR'!C41"/>
-    <hyperlink ref="C13" location="'UFR'!C32"/>
-    <hyperlink ref="C12" location="'UFR'!C30"/>
-    <hyperlink ref="C11" location="'UFR'!C28"/>
-    <hyperlink ref="C10" location="'UFR'!C26"/>
+    <hyperlink ref="C17" location="'UFR'!C58"/>
+    <hyperlink ref="C16" location="'UFR'!C50"/>
+    <hyperlink ref="C15" location="'UFR'!C48"/>
+    <hyperlink ref="C14" location="'UFR'!C42"/>
+    <hyperlink ref="C13" location="'UFR'!C38"/>
+    <hyperlink ref="C12" location="'UFR'!C36"/>
+    <hyperlink ref="C11" location="'UFR'!C26"/>
+    <hyperlink ref="C10" location="'UFR'!C22"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
